--- a/Data E.xlsx
+++ b/Data E.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kruegep\Documents\TEC\Heuristics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0943DD95-B366-4DAE-8771-2A22DB110EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F119816-99CC-4EA2-8D36-50F4B96F649F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9419B165-1263-48AE-9266-FFF7A8E1E9BB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Job Number</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Due Time (in time units)*</t>
-  </si>
-  <si>
-    <t>* Considering that time zero is when processing of the jobs starts ** 1 is the highest priority, 5 is the lowest</t>
   </si>
   <si>
     <t>Priority**</t>
@@ -402,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CB8F10-47E7-4377-8450-E73762AEEE14}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D16" sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -638,11 +635,6 @@
       </c>
       <c r="D16">
         <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
